--- a/data_rosemount/Leaf Phyllochron 2-3.xlsx
+++ b/data_rosemount/Leaf Phyllochron 2-3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauricio Mantoani\Desktop\Postdoc PhenoGrass\Data Google Drive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2040F873-56FE-49AD-82B1-F262C1733ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AD169A-2068-455C-9A64-27E0451DB949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7A2797BF-C750-4AE3-BF01-EB39CA09B917}"/>
   </bookViews>
@@ -492,10 +492,10 @@
   <dimension ref="A1:AS337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,6 +566,9 @@
       <c r="H2" s="3">
         <v>7</v>
       </c>
+      <c r="I2" s="3">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -592,6 +595,9 @@
       <c r="H3" s="2">
         <v>7</v>
       </c>
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
@@ -618,6 +624,9 @@
       <c r="H4" s="2">
         <v>17</v>
       </c>
+      <c r="I4" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
@@ -643,6 +652,9 @@
       </c>
       <c r="H5" s="2">
         <v>17</v>
+      </c>
+      <c r="I5" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -670,6 +682,9 @@
       <c r="H6" s="2">
         <v>10</v>
       </c>
+      <c r="I6" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -696,6 +711,9 @@
       <c r="H7" s="3">
         <v>17</v>
       </c>
+      <c r="I7" s="3">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
@@ -721,6 +739,9 @@
       </c>
       <c r="H8" s="2">
         <v>17</v>
+      </c>
+      <c r="I8" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -748,6 +769,9 @@
       <c r="H9" s="2">
         <v>10</v>
       </c>
+      <c r="I9" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
@@ -774,6 +798,9 @@
       <c r="H10" s="2">
         <v>7</v>
       </c>
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
@@ -800,6 +827,9 @@
       <c r="H11" s="3">
         <v>17</v>
       </c>
+      <c r="I11" s="3">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
@@ -825,6 +855,9 @@
       </c>
       <c r="H12" s="2">
         <v>7</v>
+      </c>
+      <c r="I12" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -852,6 +885,9 @@
       <c r="H13" s="2">
         <v>7</v>
       </c>
+      <c r="I13" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
@@ -878,6 +914,9 @@
       <c r="H14" s="2">
         <v>17</v>
       </c>
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
@@ -903,6 +942,9 @@
       </c>
       <c r="H15" s="2">
         <v>10</v>
+      </c>
+      <c r="I15" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -930,8 +972,11 @@
       <c r="H16" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -956,8 +1001,11 @@
       <c r="H17" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -982,8 +1030,11 @@
       <c r="H18" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1008,8 +1059,11 @@
       <c r="H19" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1034,8 +1088,11 @@
       <c r="H20" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1060,8 +1117,11 @@
       <c r="H21" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1086,8 +1146,11 @@
       <c r="H22" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1112,8 +1175,11 @@
       <c r="H23" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I23" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1138,8 +1204,11 @@
       <c r="H24" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I24" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1164,8 +1233,11 @@
       <c r="H25" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1190,8 +1262,11 @@
       <c r="H26" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I26" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1216,8 +1291,11 @@
       <c r="H27" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I27" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1242,8 +1320,11 @@
       <c r="H28" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I28" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1268,8 +1349,11 @@
       <c r="H29" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I29" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1294,8 +1378,11 @@
       <c r="H30" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I30" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1320,8 +1407,11 @@
       <c r="H31" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I31" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1346,8 +1436,11 @@
       <c r="H32" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I32" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1372,8 +1465,11 @@
       <c r="H33" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I33" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1398,8 +1494,11 @@
       <c r="H34" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I34" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1424,8 +1523,11 @@
       <c r="H35" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I35" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1450,8 +1552,11 @@
       <c r="H36" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I36" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1476,8 +1581,11 @@
       <c r="H37" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I37" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1502,8 +1610,11 @@
       <c r="H38" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I38" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1528,8 +1639,11 @@
       <c r="H39" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I39" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1554,8 +1668,11 @@
       <c r="H40" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I40" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1580,8 +1697,11 @@
       <c r="H41" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I41" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1606,8 +1726,11 @@
       <c r="H42" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I42" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1632,8 +1755,11 @@
       <c r="H43" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I43" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1658,8 +1784,11 @@
       <c r="H44" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I44" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1684,8 +1813,11 @@
       <c r="H45" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I45" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1710,8 +1842,11 @@
       <c r="H46" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I46" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1736,8 +1871,11 @@
       <c r="H47" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I47" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1762,8 +1900,11 @@
       <c r="H48" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I48" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1788,8 +1929,11 @@
       <c r="H49" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I49" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1814,8 +1958,11 @@
       <c r="H50" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I50" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1840,8 +1987,11 @@
       <c r="H51" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I51" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1866,8 +2016,11 @@
       <c r="H52" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I52" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1892,8 +2045,11 @@
       <c r="H53" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I53" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -1918,8 +2074,11 @@
       <c r="H54" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I54" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1944,8 +2103,11 @@
       <c r="H55" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I55" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1970,8 +2132,11 @@
       <c r="H56" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I56" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1996,8 +2161,11 @@
       <c r="H57" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I57" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2022,8 +2190,11 @@
       <c r="H58" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I58" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2048,8 +2219,11 @@
       <c r="H59" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I59" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2074,8 +2248,11 @@
       <c r="H60" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I60" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -2100,8 +2277,11 @@
       <c r="H61" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I61" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -2126,8 +2306,11 @@
       <c r="H62" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I62" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -2152,8 +2335,11 @@
       <c r="H63" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I63" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -2178,8 +2364,11 @@
       <c r="H64" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I64" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -2204,8 +2393,11 @@
       <c r="H65" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I65" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -2230,8 +2422,11 @@
       <c r="H66" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I66" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -2256,8 +2451,11 @@
       <c r="H67" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I67" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -2282,8 +2480,11 @@
       <c r="H68" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I68" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -2308,8 +2509,11 @@
       <c r="H69" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I69" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -2334,8 +2538,11 @@
       <c r="H70" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I70" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -2360,8 +2567,11 @@
       <c r="H71" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I71" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -2386,8 +2596,11 @@
       <c r="H72" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I72" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -2412,8 +2625,11 @@
       <c r="H73" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I73" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -2438,8 +2654,11 @@
       <c r="H74" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I74" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -2464,8 +2683,11 @@
       <c r="H75" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I75" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -2490,8 +2712,11 @@
       <c r="H76" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I76" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -2516,8 +2741,11 @@
       <c r="H77" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I77" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -2542,8 +2770,11 @@
       <c r="H78" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I78" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -2568,8 +2799,11 @@
       <c r="H79" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I79" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -2594,8 +2828,11 @@
       <c r="H80" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I80" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -2620,8 +2857,11 @@
       <c r="H81" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I81" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -2646,8 +2886,11 @@
       <c r="H82" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I82" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -2672,8 +2915,11 @@
       <c r="H83" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I83" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -2698,8 +2944,11 @@
       <c r="H84" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I84" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -2724,8 +2973,11 @@
       <c r="H85" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I85" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -2750,8 +3002,11 @@
       <c r="H86" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I86" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -2776,8 +3031,11 @@
       <c r="H87" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I87" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -2802,8 +3060,11 @@
       <c r="H88" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I88" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -2828,8 +3089,11 @@
       <c r="H89" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I89" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -2854,8 +3118,11 @@
       <c r="H90" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I90" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -2880,8 +3147,11 @@
       <c r="H91" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I91" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -2906,8 +3176,11 @@
       <c r="H92" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I92" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -2932,8 +3205,11 @@
       <c r="H93" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I93" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -2958,8 +3234,11 @@
       <c r="H94" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I94" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -2984,8 +3263,11 @@
       <c r="H95" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I95" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -3009,6 +3291,9 @@
       </c>
       <c r="H96" s="3">
         <v>10</v>
+      </c>
+      <c r="I96" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:45" x14ac:dyDescent="0.35">
@@ -3036,6 +3321,9 @@
       <c r="H97" s="2">
         <v>10</v>
       </c>
+      <c r="I97" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="98" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
@@ -3062,6 +3350,9 @@
       <c r="H98" s="2">
         <v>7</v>
       </c>
+      <c r="I98" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="99" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
@@ -3088,6 +3379,9 @@
       <c r="H99" s="2">
         <v>10</v>
       </c>
+      <c r="I99" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="100" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
@@ -3114,6 +3408,9 @@
       <c r="H100" s="2">
         <v>17</v>
       </c>
+      <c r="I100" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="101" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
@@ -3140,6 +3437,9 @@
       <c r="H101" s="2">
         <v>14</v>
       </c>
+      <c r="I101" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="102" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
@@ -3166,6 +3466,9 @@
       <c r="H102" s="2">
         <v>17</v>
       </c>
+      <c r="I102" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="103" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
@@ -3192,6 +3495,9 @@
       <c r="H103" s="2">
         <v>17</v>
       </c>
+      <c r="I103" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="104" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
@@ -3218,6 +3524,9 @@
       <c r="H104" s="2">
         <v>14</v>
       </c>
+      <c r="I104" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="105" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
@@ -3244,6 +3553,9 @@
       <c r="H105" s="2">
         <v>17</v>
       </c>
+      <c r="I105" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="106" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
@@ -3270,6 +3582,9 @@
       <c r="H106" s="2">
         <v>14</v>
       </c>
+      <c r="I106" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="107" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
@@ -3296,6 +3611,9 @@
       <c r="H107" s="2">
         <v>7</v>
       </c>
+      <c r="I107" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="108" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
@@ -3322,6 +3640,9 @@
       <c r="H108" s="2">
         <v>17</v>
       </c>
+      <c r="I108" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="109" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
@@ -3348,6 +3669,9 @@
       <c r="H109" s="2">
         <v>10</v>
       </c>
+      <c r="I109" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="110" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
@@ -3374,6 +3698,9 @@
       <c r="H110" s="2">
         <v>3</v>
       </c>
+      <c r="I110" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="111" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
@@ -3400,6 +3727,9 @@
       <c r="H111" s="2">
         <v>7</v>
       </c>
+      <c r="I111" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="112" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
@@ -3426,7 +3756,9 @@
       <c r="H112" s="2">
         <v>10</v>
       </c>
-      <c r="I112" s="2"/>
+      <c r="I112" s="2">
+        <v>3</v>
+      </c>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
@@ -3489,7 +3821,9 @@
       <c r="H113" s="2">
         <v>17</v>
       </c>
-      <c r="I113" s="2"/>
+      <c r="I113" s="2">
+        <v>14</v>
+      </c>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
@@ -3552,7 +3886,9 @@
       <c r="H114" s="2">
         <v>17</v>
       </c>
-      <c r="I114" s="2"/>
+      <c r="I114" s="2">
+        <v>7</v>
+      </c>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
@@ -3615,7 +3951,9 @@
       <c r="H115" s="2">
         <v>17</v>
       </c>
-      <c r="I115" s="2"/>
+      <c r="I115" s="2">
+        <v>10</v>
+      </c>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
@@ -3678,7 +4016,9 @@
       <c r="H116" s="2">
         <v>17</v>
       </c>
-      <c r="I116" s="2"/>
+      <c r="I116" s="2">
+        <v>14</v>
+      </c>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
@@ -3741,7 +4081,9 @@
       <c r="H117" s="2">
         <v>14</v>
       </c>
-      <c r="I117" s="2"/>
+      <c r="I117" s="2">
+        <v>10</v>
+      </c>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
@@ -3804,7 +4146,9 @@
       <c r="H118" s="2">
         <v>17</v>
       </c>
-      <c r="I118" s="2"/>
+      <c r="I118" s="2">
+        <v>14</v>
+      </c>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
@@ -3867,7 +4211,9 @@
       <c r="H119" s="2">
         <v>17</v>
       </c>
-      <c r="I119" s="2"/>
+      <c r="I119" s="2">
+        <v>10</v>
+      </c>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
@@ -3930,7 +4276,9 @@
       <c r="H120" s="2">
         <v>3</v>
       </c>
-      <c r="I120" s="2"/>
+      <c r="I120" s="2">
+        <v>10</v>
+      </c>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
@@ -3993,7 +4341,9 @@
       <c r="H121" s="2">
         <v>14</v>
       </c>
-      <c r="I121" s="2"/>
+      <c r="I121" s="2">
+        <v>7</v>
+      </c>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
@@ -4056,7 +4406,9 @@
       <c r="H122" s="2">
         <v>17</v>
       </c>
-      <c r="I122" s="2"/>
+      <c r="I122" s="2">
+        <v>14</v>
+      </c>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
@@ -4119,6 +4471,9 @@
       <c r="H123" s="3">
         <v>17</v>
       </c>
+      <c r="I123" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="124" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
@@ -4145,7 +4500,9 @@
       <c r="H124" s="2">
         <v>17</v>
       </c>
-      <c r="I124" s="2"/>
+      <c r="I124" s="2">
+        <v>14</v>
+      </c>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
@@ -4208,7 +4565,9 @@
       <c r="H125" s="2">
         <v>14</v>
       </c>
-      <c r="I125" s="2"/>
+      <c r="I125" s="2">
+        <v>10</v>
+      </c>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
@@ -4271,7 +4630,9 @@
       <c r="H126" s="2">
         <v>17</v>
       </c>
-      <c r="I126" s="2"/>
+      <c r="I126" s="2">
+        <v>10</v>
+      </c>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
@@ -4334,7 +4695,9 @@
       <c r="H127" s="2">
         <v>14</v>
       </c>
-      <c r="I127" s="2"/>
+      <c r="I127" s="2">
+        <v>10</v>
+      </c>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
@@ -4397,8 +4760,11 @@
       <c r="H128" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I128" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -4423,8 +4789,11 @@
       <c r="H129" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I129" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -4449,8 +4818,11 @@
       <c r="H130" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I130" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -4475,8 +4847,11 @@
       <c r="H131" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I131" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -4501,8 +4876,11 @@
       <c r="H132" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I132" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -4527,8 +4905,11 @@
       <c r="H133" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I133" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -4553,8 +4934,11 @@
       <c r="H134" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I134" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -4579,8 +4963,11 @@
       <c r="H135" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I135" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -4605,8 +4992,11 @@
       <c r="H136" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I136" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -4631,8 +5021,11 @@
       <c r="H137" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I137" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -4657,8 +5050,11 @@
       <c r="H138" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I138" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -4683,8 +5079,11 @@
       <c r="H139" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I139" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -4709,8 +5108,11 @@
       <c r="H140" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I140" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -4735,8 +5137,11 @@
       <c r="H141" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I141" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -4761,8 +5166,11 @@
       <c r="H142" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I142" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -4787,8 +5195,11 @@
       <c r="H143" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I143" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -4813,8 +5224,11 @@
       <c r="H144" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I144" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -4839,8 +5253,11 @@
       <c r="H145" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I145" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -4865,8 +5282,11 @@
       <c r="H146" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I146" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -4891,8 +5311,11 @@
       <c r="H147" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I147" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -4917,8 +5340,11 @@
       <c r="H148" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I148" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -4943,8 +5369,11 @@
       <c r="H149" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I149" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -4969,8 +5398,11 @@
       <c r="H150" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I150" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -4995,8 +5427,11 @@
       <c r="H151" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I151" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -5021,8 +5456,11 @@
       <c r="H152" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I152" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -5047,8 +5485,11 @@
       <c r="H153" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I153" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -5073,8 +5514,11 @@
       <c r="H154" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I154" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -5099,8 +5543,11 @@
       <c r="H155" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I155" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -5125,8 +5572,11 @@
       <c r="H156" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I156" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -5151,8 +5601,11 @@
       <c r="H157" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I157" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -5177,8 +5630,11 @@
       <c r="H158" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I158" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -5203,8 +5659,11 @@
       <c r="H159" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I159" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -5227,6 +5686,9 @@
         <v>7</v>
       </c>
       <c r="H160" s="2">
+        <v>14</v>
+      </c>
+      <c r="I160" s="2">
         <v>14</v>
       </c>
     </row>
@@ -5255,6 +5717,9 @@
       <c r="H161" s="2">
         <v>14</v>
       </c>
+      <c r="I161" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="162" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
@@ -5281,6 +5746,9 @@
       <c r="H162" s="2">
         <v>14</v>
       </c>
+      <c r="I162" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="163" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
@@ -5307,6 +5775,9 @@
       <c r="H163" s="2">
         <v>17</v>
       </c>
+      <c r="I163" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="164" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
@@ -5333,6 +5804,9 @@
       <c r="H164" s="2">
         <v>14</v>
       </c>
+      <c r="I164" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="165" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
@@ -5359,6 +5833,9 @@
       <c r="H165" s="2">
         <v>14</v>
       </c>
+      <c r="I165" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="166" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
@@ -5385,6 +5862,9 @@
       <c r="H166" s="2">
         <v>7</v>
       </c>
+      <c r="I166" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="167" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
@@ -5411,6 +5891,9 @@
       <c r="H167" s="2">
         <v>14</v>
       </c>
+      <c r="I167" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="168" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
@@ -5437,6 +5920,9 @@
       <c r="H168" s="2">
         <v>14</v>
       </c>
+      <c r="I168" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="169" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
@@ -5463,6 +5949,9 @@
       <c r="H169" s="2">
         <v>10</v>
       </c>
+      <c r="I169" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="170" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
@@ -5489,6 +5978,9 @@
       <c r="H170" s="2">
         <v>14</v>
       </c>
+      <c r="I170" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="171" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
@@ -5515,6 +6007,9 @@
       <c r="H171" s="2">
         <v>3</v>
       </c>
+      <c r="I171" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="172" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
@@ -5541,6 +6036,9 @@
       <c r="H172" s="2">
         <v>14</v>
       </c>
+      <c r="I172" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="173" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
@@ -5567,6 +6065,9 @@
       <c r="H173" s="2">
         <v>17</v>
       </c>
+      <c r="I173" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="174" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
@@ -5593,6 +6094,9 @@
       <c r="H174" s="2">
         <v>14</v>
       </c>
+      <c r="I174" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="175" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
@@ -5619,6 +6123,9 @@
       <c r="H175" s="2">
         <v>14</v>
       </c>
+      <c r="I175" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="176" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
@@ -5645,7 +6152,9 @@
       <c r="H176" s="2">
         <v>14</v>
       </c>
-      <c r="I176" s="2"/>
+      <c r="I176" s="2">
+        <v>10</v>
+      </c>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
@@ -5708,7 +6217,9 @@
       <c r="H177" s="2">
         <v>17</v>
       </c>
-      <c r="I177" s="2"/>
+      <c r="I177" s="2">
+        <v>10</v>
+      </c>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
@@ -5771,7 +6282,9 @@
       <c r="H178" s="2">
         <v>7</v>
       </c>
-      <c r="I178" s="2"/>
+      <c r="I178" s="2">
+        <v>14</v>
+      </c>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
@@ -5834,7 +6347,9 @@
       <c r="H179" s="2">
         <v>10</v>
       </c>
-      <c r="I179" s="2"/>
+      <c r="I179" s="2">
+        <v>10</v>
+      </c>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
@@ -5897,7 +6412,9 @@
       <c r="H180" s="2">
         <v>14</v>
       </c>
-      <c r="I180" s="2"/>
+      <c r="I180" s="2">
+        <v>10</v>
+      </c>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
@@ -5960,7 +6477,9 @@
       <c r="H181" s="2">
         <v>14</v>
       </c>
-      <c r="I181" s="2"/>
+      <c r="I181" s="2">
+        <v>10</v>
+      </c>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
@@ -6023,7 +6542,9 @@
       <c r="H182" s="2">
         <v>10</v>
       </c>
-      <c r="I182" s="2"/>
+      <c r="I182" s="2">
+        <v>7</v>
+      </c>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
@@ -6086,7 +6607,9 @@
       <c r="H183" s="2">
         <v>10</v>
       </c>
-      <c r="I183" s="2"/>
+      <c r="I183" s="2">
+        <v>14</v>
+      </c>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
@@ -6149,6 +6672,9 @@
       <c r="H184" s="3">
         <v>14</v>
       </c>
+      <c r="I184" s="3">
+        <v>14</v>
+      </c>
     </row>
     <row r="185" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
@@ -6175,7 +6701,9 @@
       <c r="H185" s="2">
         <v>17</v>
       </c>
-      <c r="I185" s="2"/>
+      <c r="I185" s="2">
+        <v>14</v>
+      </c>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
@@ -6238,7 +6766,9 @@
       <c r="H186" s="2">
         <v>10</v>
       </c>
-      <c r="I186" s="2"/>
+      <c r="I186" s="2">
+        <v>14</v>
+      </c>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
@@ -6301,7 +6831,9 @@
       <c r="H187" s="2">
         <v>17</v>
       </c>
-      <c r="I187" s="2"/>
+      <c r="I187" s="2">
+        <v>14</v>
+      </c>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
@@ -6364,7 +6896,9 @@
       <c r="H188" s="2">
         <v>7</v>
       </c>
-      <c r="I188" s="2"/>
+      <c r="I188" s="2">
+        <v>7</v>
+      </c>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
@@ -6427,7 +6961,9 @@
       <c r="H189" s="2">
         <v>17</v>
       </c>
-      <c r="I189" s="2"/>
+      <c r="I189" s="2">
+        <v>10</v>
+      </c>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
@@ -6490,7 +7026,9 @@
       <c r="H190" s="2">
         <v>17</v>
       </c>
-      <c r="I190" s="2"/>
+      <c r="I190" s="2">
+        <v>10</v>
+      </c>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
@@ -6553,7 +7091,9 @@
       <c r="H191" s="2">
         <v>10</v>
       </c>
-      <c r="I191" s="2"/>
+      <c r="I191" s="2">
+        <v>10</v>
+      </c>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
@@ -6616,7 +7156,9 @@
       <c r="H192" s="2">
         <v>14</v>
       </c>
-      <c r="I192" s="2"/>
+      <c r="I192" s="2">
+        <v>14</v>
+      </c>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
@@ -6679,7 +7221,9 @@
       <c r="H193" s="2">
         <v>14</v>
       </c>
-      <c r="I193" s="2"/>
+      <c r="I193" s="2">
+        <v>14</v>
+      </c>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
@@ -6742,7 +7286,9 @@
       <c r="H194" s="2">
         <v>14</v>
       </c>
-      <c r="I194" s="2"/>
+      <c r="I194" s="2">
+        <v>14</v>
+      </c>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
@@ -6805,6 +7351,9 @@
       <c r="H195" s="3">
         <v>14</v>
       </c>
+      <c r="I195" s="3">
+        <v>14</v>
+      </c>
     </row>
     <row r="196" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
@@ -6831,7 +7380,9 @@
       <c r="H196" s="2">
         <v>14</v>
       </c>
-      <c r="I196" s="2"/>
+      <c r="I196" s="2">
+        <v>14</v>
+      </c>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
@@ -6894,7 +7445,9 @@
       <c r="H197" s="2">
         <v>14</v>
       </c>
-      <c r="I197" s="2"/>
+      <c r="I197" s="2">
+        <v>14</v>
+      </c>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
@@ -6957,7 +7510,9 @@
       <c r="H198" s="2">
         <v>10</v>
       </c>
-      <c r="I198" s="2"/>
+      <c r="I198" s="2">
+        <v>7</v>
+      </c>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
@@ -7020,7 +7575,9 @@
       <c r="H199" s="2">
         <v>14</v>
       </c>
-      <c r="I199" s="2"/>
+      <c r="I199" s="2">
+        <v>10</v>
+      </c>
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
@@ -7083,7 +7640,9 @@
       <c r="H200" s="2">
         <v>7</v>
       </c>
-      <c r="I200" s="2"/>
+      <c r="I200" s="2">
+        <v>10</v>
+      </c>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
@@ -7146,7 +7705,9 @@
       <c r="H201" s="2">
         <v>14</v>
       </c>
-      <c r="I201" s="2"/>
+      <c r="I201" s="2">
+        <v>14</v>
+      </c>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
@@ -7209,7 +7770,9 @@
       <c r="H202" s="2">
         <v>14</v>
       </c>
-      <c r="I202" s="2"/>
+      <c r="I202" s="2">
+        <v>7</v>
+      </c>
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
@@ -7272,7 +7835,9 @@
       <c r="H203" s="2">
         <v>14</v>
       </c>
-      <c r="I203" s="2"/>
+      <c r="I203" s="2">
+        <v>10</v>
+      </c>
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
@@ -7335,7 +7900,9 @@
       <c r="H204" s="2">
         <v>10</v>
       </c>
-      <c r="I204" s="2"/>
+      <c r="I204" s="2">
+        <v>10</v>
+      </c>
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
@@ -7398,7 +7965,9 @@
       <c r="H205" s="2">
         <v>7</v>
       </c>
-      <c r="I205" s="2"/>
+      <c r="I205" s="2">
+        <v>10</v>
+      </c>
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
@@ -7461,7 +8030,9 @@
       <c r="H206" s="2">
         <v>14</v>
       </c>
-      <c r="I206" s="2"/>
+      <c r="I206" s="2">
+        <v>7</v>
+      </c>
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
@@ -7524,7 +8095,9 @@
       <c r="H207" s="2">
         <v>14</v>
       </c>
-      <c r="I207" s="2"/>
+      <c r="I207" s="2">
+        <v>10</v>
+      </c>
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
@@ -7587,6 +8160,9 @@
       <c r="H208" s="3">
         <v>14</v>
       </c>
+      <c r="I208" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="209" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
@@ -7613,7 +8189,9 @@
       <c r="H209" s="2">
         <v>14</v>
       </c>
-      <c r="I209" s="2"/>
+      <c r="I209" s="2">
+        <v>10</v>
+      </c>
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
@@ -7676,7 +8254,9 @@
       <c r="H210" s="2">
         <v>14</v>
       </c>
-      <c r="I210" s="2"/>
+      <c r="I210" s="2">
+        <v>7</v>
+      </c>
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
@@ -7739,7 +8319,9 @@
       <c r="H211" s="2">
         <v>14</v>
       </c>
-      <c r="I211" s="2"/>
+      <c r="I211" s="2">
+        <v>14</v>
+      </c>
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
@@ -7802,7 +8384,9 @@
       <c r="H212" s="2">
         <v>14</v>
       </c>
-      <c r="I212" s="2"/>
+      <c r="I212" s="2">
+        <v>10</v>
+      </c>
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
@@ -7865,7 +8449,9 @@
       <c r="H213" s="2">
         <v>7</v>
       </c>
-      <c r="I213" s="2"/>
+      <c r="I213" s="2">
+        <v>10</v>
+      </c>
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
@@ -7928,7 +8514,9 @@
       <c r="H214" s="2">
         <v>17</v>
       </c>
-      <c r="I214" s="2"/>
+      <c r="I214" s="2">
+        <v>10</v>
+      </c>
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
@@ -7991,7 +8579,9 @@
       <c r="H215" s="2">
         <v>17</v>
       </c>
-      <c r="I215" s="2"/>
+      <c r="I215" s="2">
+        <v>10</v>
+      </c>
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
@@ -8054,7 +8644,9 @@
       <c r="H216" s="2">
         <v>17</v>
       </c>
-      <c r="I216" s="2"/>
+      <c r="I216" s="2">
+        <v>7</v>
+      </c>
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
@@ -8117,7 +8709,9 @@
       <c r="H217" s="2">
         <v>17</v>
       </c>
-      <c r="I217" s="2"/>
+      <c r="I217" s="2">
+        <v>7</v>
+      </c>
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
@@ -8180,7 +8774,9 @@
       <c r="H218" s="2">
         <v>14</v>
       </c>
-      <c r="I218" s="2"/>
+      <c r="I218" s="2">
+        <v>10</v>
+      </c>
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
@@ -8243,7 +8839,9 @@
       <c r="H219" s="2">
         <v>14</v>
       </c>
-      <c r="I219" s="2"/>
+      <c r="I219" s="2">
+        <v>7</v>
+      </c>
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
@@ -8306,7 +8904,9 @@
       <c r="H220" s="2">
         <v>17</v>
       </c>
-      <c r="I220" s="2"/>
+      <c r="I220" s="2">
+        <v>3</v>
+      </c>
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
@@ -8369,7 +8969,9 @@
       <c r="H221" s="2">
         <v>14</v>
       </c>
-      <c r="I221" s="2"/>
+      <c r="I221" s="2">
+        <v>10</v>
+      </c>
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
@@ -8432,7 +9034,9 @@
       <c r="H222" s="2">
         <v>14</v>
       </c>
-      <c r="I222" s="2"/>
+      <c r="I222" s="2">
+        <v>7</v>
+      </c>
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
@@ -8495,7 +9099,9 @@
       <c r="H223" s="2">
         <v>17</v>
       </c>
-      <c r="I223" s="2"/>
+      <c r="I223" s="2">
+        <v>10</v>
+      </c>
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
@@ -8558,8 +9164,11 @@
       <c r="H224" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I224" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -8584,8 +9193,11 @@
       <c r="H225" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I225" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -8610,8 +9222,11 @@
       <c r="H226" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I226" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -8636,8 +9251,11 @@
       <c r="H227" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I227" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -8662,8 +9280,11 @@
       <c r="H228" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I228" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -8688,8 +9309,11 @@
       <c r="H229" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I229" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -8714,8 +9338,11 @@
       <c r="H230" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I230" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -8740,8 +9367,11 @@
       <c r="H231" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I231" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -8766,8 +9396,11 @@
       <c r="H232" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I232" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -8792,8 +9425,11 @@
       <c r="H233" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I233" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -8818,8 +9454,11 @@
       <c r="H234" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I234" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -8844,8 +9483,11 @@
       <c r="H235" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I235" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -8870,8 +9512,11 @@
       <c r="H236" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I236" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -8896,8 +9541,11 @@
       <c r="H237" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I237" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -8922,8 +9570,11 @@
       <c r="H238" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I238" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -8948,8 +9599,11 @@
       <c r="H239" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I239" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
         <v>239</v>
       </c>
@@ -8974,8 +9628,11 @@
       <c r="H240" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I240" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -9000,8 +9657,11 @@
       <c r="H241" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I241" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -9026,8 +9686,11 @@
       <c r="H242" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I242" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -9052,8 +9715,11 @@
       <c r="H243" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I243" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -9078,8 +9744,11 @@
       <c r="H244" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I244" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -9104,8 +9773,11 @@
       <c r="H245" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I245" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -9130,8 +9802,11 @@
       <c r="H246" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I246" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -9156,8 +9831,11 @@
       <c r="H247" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I247" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -9182,8 +9860,11 @@
       <c r="H248" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I248" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
         <v>248</v>
       </c>
@@ -9208,8 +9889,11 @@
       <c r="H249" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I249" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -9234,8 +9918,11 @@
       <c r="H250" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I250" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -9260,8 +9947,11 @@
       <c r="H251" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I251" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -9286,8 +9976,11 @@
       <c r="H252" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I252" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -9312,8 +10005,11 @@
       <c r="H253" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I253" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -9338,8 +10034,11 @@
       <c r="H254" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I254" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -9364,8 +10063,11 @@
       <c r="H255" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I255" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -9390,8 +10092,11 @@
       <c r="H256" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I256" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -9416,8 +10121,11 @@
       <c r="H257" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I257" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -9442,8 +10150,11 @@
       <c r="H258" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I258" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -9468,8 +10179,11 @@
       <c r="H259" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I259" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -9494,8 +10208,11 @@
       <c r="H260" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I260" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -9520,8 +10237,11 @@
       <c r="H261" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I261" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -9546,8 +10266,11 @@
       <c r="H262" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I262" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -9572,8 +10295,11 @@
       <c r="H263" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I263" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -9598,8 +10324,11 @@
       <c r="H264" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I264" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -9624,8 +10353,11 @@
       <c r="H265" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I265" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -9650,8 +10382,11 @@
       <c r="H266" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I266" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -9676,8 +10411,11 @@
       <c r="H267" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I267" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -9702,8 +10440,11 @@
       <c r="H268" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I268" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -9728,8 +10469,11 @@
       <c r="H269" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I269" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -9754,8 +10498,11 @@
       <c r="H270" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I270" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -9780,8 +10527,11 @@
       <c r="H271" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I271" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -9804,6 +10554,9 @@
         <v>4</v>
       </c>
       <c r="H272" s="2">
+        <v>7</v>
+      </c>
+      <c r="I272" s="2">
         <v>7</v>
       </c>
     </row>
@@ -9832,6 +10585,9 @@
       <c r="H273" s="2">
         <v>17</v>
       </c>
+      <c r="I273" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="274" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
@@ -9858,6 +10614,9 @@
       <c r="H274" s="2">
         <v>14</v>
       </c>
+      <c r="I274" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="275" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
@@ -9884,6 +10643,9 @@
       <c r="H275" s="2">
         <v>14</v>
       </c>
+      <c r="I275" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="276" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
@@ -9910,6 +10672,9 @@
       <c r="H276" s="2">
         <v>14</v>
       </c>
+      <c r="I276" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="277" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
@@ -9936,6 +10701,9 @@
       <c r="H277" s="2">
         <v>14</v>
       </c>
+      <c r="I277" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="278" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A278" s="3">
@@ -9962,6 +10730,9 @@
       <c r="H278" s="3">
         <v>14</v>
       </c>
+      <c r="I278" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="279" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
@@ -9988,6 +10759,9 @@
       <c r="H279" s="2">
         <v>14</v>
       </c>
+      <c r="I279" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="280" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
@@ -10014,6 +10788,9 @@
       <c r="H280" s="2">
         <v>10</v>
       </c>
+      <c r="I280" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="281" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
@@ -10040,6 +10817,9 @@
       <c r="H281" s="2">
         <v>14</v>
       </c>
+      <c r="I281" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="282" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
@@ -10066,6 +10846,9 @@
       <c r="H282" s="2">
         <v>14</v>
       </c>
+      <c r="I282" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="283" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
@@ -10092,6 +10875,9 @@
       <c r="H283" s="2">
         <v>14</v>
       </c>
+      <c r="I283" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="284" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
@@ -10118,6 +10904,9 @@
       <c r="H284" s="2">
         <v>14</v>
       </c>
+      <c r="I284" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="285" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
@@ -10144,6 +10933,9 @@
       <c r="H285" s="2">
         <v>14</v>
       </c>
+      <c r="I285" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="286" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
@@ -10170,6 +10962,9 @@
       <c r="H286" s="2">
         <v>14</v>
       </c>
+      <c r="I286" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="287" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
@@ -10196,6 +10991,9 @@
       <c r="H287" s="2">
         <v>14</v>
       </c>
+      <c r="I287" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="288" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
@@ -10222,7 +11020,9 @@
       <c r="H288" s="2">
         <v>14</v>
       </c>
-      <c r="I288" s="2"/>
+      <c r="I288" s="2">
+        <v>10</v>
+      </c>
       <c r="J288" s="2"/>
       <c r="K288" s="2"/>
       <c r="L288" s="2"/>
@@ -10285,7 +11085,9 @@
       <c r="H289" s="2">
         <v>7</v>
       </c>
-      <c r="I289" s="2"/>
+      <c r="I289" s="2">
+        <v>7</v>
+      </c>
       <c r="J289" s="2"/>
       <c r="K289" s="2"/>
       <c r="L289" s="2"/>
@@ -10348,7 +11150,9 @@
       <c r="H290" s="2">
         <v>7</v>
       </c>
-      <c r="I290" s="2"/>
+      <c r="I290" s="2">
+        <v>7</v>
+      </c>
       <c r="J290" s="2"/>
       <c r="K290" s="2"/>
       <c r="L290" s="2"/>
@@ -10411,7 +11215,9 @@
       <c r="H291" s="2">
         <v>10</v>
       </c>
-      <c r="I291" s="2"/>
+      <c r="I291" s="2">
+        <v>7</v>
+      </c>
       <c r="J291" s="2"/>
       <c r="K291" s="2"/>
       <c r="L291" s="2"/>
@@ -10474,6 +11280,9 @@
       <c r="H292" s="3">
         <v>14</v>
       </c>
+      <c r="I292" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="293" spans="1:45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
@@ -10500,7 +11309,9 @@
       <c r="H293" s="2">
         <v>10</v>
       </c>
-      <c r="I293" s="2"/>
+      <c r="I293" s="2">
+        <v>10</v>
+      </c>
       <c r="J293" s="2"/>
       <c r="K293" s="2"/>
       <c r="L293" s="2"/>
@@ -10563,7 +11374,9 @@
       <c r="H294" s="2">
         <v>14</v>
       </c>
-      <c r="I294" s="2"/>
+      <c r="I294" s="2">
+        <v>3</v>
+      </c>
       <c r="J294" s="2"/>
       <c r="K294" s="2"/>
       <c r="L294" s="2"/>
@@ -10626,7 +11439,9 @@
       <c r="H295" s="2">
         <v>17</v>
       </c>
-      <c r="I295" s="2"/>
+      <c r="I295" s="2">
+        <v>14</v>
+      </c>
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
       <c r="L295" s="2"/>
@@ -10689,7 +11504,9 @@
       <c r="H296" s="2">
         <v>10</v>
       </c>
-      <c r="I296" s="2"/>
+      <c r="I296" s="2">
+        <v>7</v>
+      </c>
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
@@ -10752,7 +11569,9 @@
       <c r="H297" s="2">
         <v>14</v>
       </c>
-      <c r="I297" s="2"/>
+      <c r="I297" s="2">
+        <v>7</v>
+      </c>
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
@@ -10815,7 +11634,9 @@
       <c r="H298" s="2">
         <v>14</v>
       </c>
-      <c r="I298" s="2"/>
+      <c r="I298" s="2">
+        <v>14</v>
+      </c>
       <c r="J298" s="2"/>
       <c r="K298" s="2"/>
       <c r="L298" s="2"/>
@@ -10878,7 +11699,9 @@
       <c r="H299" s="2">
         <v>17</v>
       </c>
-      <c r="I299" s="2"/>
+      <c r="I299" s="2">
+        <v>7</v>
+      </c>
       <c r="J299" s="2"/>
       <c r="K299" s="2"/>
       <c r="L299" s="2"/>
@@ -10941,7 +11764,9 @@
       <c r="H300" s="2">
         <v>10</v>
       </c>
-      <c r="I300" s="2"/>
+      <c r="I300" s="2">
+        <v>3</v>
+      </c>
       <c r="J300" s="2"/>
       <c r="K300" s="2"/>
       <c r="L300" s="2"/>
@@ -11004,7 +11829,9 @@
       <c r="H301" s="2">
         <v>7</v>
       </c>
-      <c r="I301" s="2"/>
+      <c r="I301" s="2">
+        <v>14</v>
+      </c>
       <c r="J301" s="2"/>
       <c r="K301" s="2"/>
       <c r="L301" s="2"/>
@@ -11067,7 +11894,9 @@
       <c r="H302" s="2">
         <v>7</v>
       </c>
-      <c r="I302" s="2"/>
+      <c r="I302" s="2">
+        <v>10</v>
+      </c>
       <c r="J302" s="2"/>
       <c r="K302" s="2"/>
       <c r="L302" s="2"/>
@@ -11130,7 +11959,9 @@
       <c r="H303" s="2">
         <v>14</v>
       </c>
-      <c r="I303" s="2"/>
+      <c r="I303" s="2">
+        <v>10</v>
+      </c>
       <c r="J303" s="2"/>
       <c r="K303" s="2"/>
       <c r="L303" s="2"/>
@@ -11193,7 +12024,9 @@
       <c r="H304" s="2">
         <v>17</v>
       </c>
-      <c r="I304" s="2"/>
+      <c r="I304" s="2">
+        <v>10</v>
+      </c>
       <c r="J304" s="2"/>
       <c r="K304" s="2"/>
       <c r="L304" s="2"/>
@@ -11256,7 +12089,9 @@
       <c r="H305" s="2">
         <v>17</v>
       </c>
-      <c r="I305" s="2"/>
+      <c r="I305" s="2">
+        <v>14</v>
+      </c>
       <c r="J305" s="2"/>
       <c r="K305" s="2"/>
       <c r="L305" s="2"/>
@@ -11319,7 +12154,9 @@
       <c r="H306" s="2">
         <v>14</v>
       </c>
-      <c r="I306" s="2"/>
+      <c r="I306" s="2">
+        <v>3</v>
+      </c>
       <c r="J306" s="2"/>
       <c r="K306" s="2"/>
       <c r="L306" s="2"/>
@@ -11382,7 +12219,9 @@
       <c r="H307" s="2">
         <v>14</v>
       </c>
-      <c r="I307" s="2"/>
+      <c r="I307" s="2">
+        <v>3</v>
+      </c>
       <c r="J307" s="2"/>
       <c r="K307" s="2"/>
       <c r="L307" s="2"/>
@@ -11445,7 +12284,9 @@
       <c r="H308" s="2">
         <v>14</v>
       </c>
-      <c r="I308" s="2"/>
+      <c r="I308" s="2">
+        <v>10</v>
+      </c>
       <c r="J308" s="2"/>
       <c r="K308" s="2"/>
       <c r="L308" s="2"/>
@@ -11508,7 +12349,9 @@
       <c r="H309" s="2">
         <v>14</v>
       </c>
-      <c r="I309" s="2"/>
+      <c r="I309" s="2">
+        <v>14</v>
+      </c>
       <c r="J309" s="2"/>
       <c r="K309" s="2"/>
       <c r="L309" s="2"/>
@@ -11571,7 +12414,9 @@
       <c r="H310" s="2">
         <v>14</v>
       </c>
-      <c r="I310" s="2"/>
+      <c r="I310" s="2">
+        <v>10</v>
+      </c>
       <c r="J310" s="2"/>
       <c r="K310" s="2"/>
       <c r="L310" s="2"/>
@@ -11634,7 +12479,9 @@
       <c r="H311" s="2">
         <v>14</v>
       </c>
-      <c r="I311" s="2"/>
+      <c r="I311" s="2">
+        <v>3</v>
+      </c>
       <c r="J311" s="2"/>
       <c r="K311" s="2"/>
       <c r="L311" s="2"/>
@@ -11697,7 +12544,9 @@
       <c r="H312" s="2">
         <v>17</v>
       </c>
-      <c r="I312" s="2"/>
+      <c r="I312" s="2">
+        <v>10</v>
+      </c>
       <c r="J312" s="2"/>
       <c r="K312" s="2"/>
       <c r="L312" s="2"/>
@@ -11760,7 +12609,9 @@
       <c r="H313" s="2">
         <v>17</v>
       </c>
-      <c r="I313" s="2"/>
+      <c r="I313" s="2">
+        <v>3</v>
+      </c>
       <c r="J313" s="2"/>
       <c r="K313" s="2"/>
       <c r="L313" s="2"/>
@@ -11823,7 +12674,9 @@
       <c r="H314" s="2">
         <v>17</v>
       </c>
-      <c r="I314" s="2"/>
+      <c r="I314" s="2">
+        <v>7</v>
+      </c>
       <c r="J314" s="2"/>
       <c r="K314" s="2"/>
       <c r="L314" s="2"/>
@@ -11886,7 +12739,9 @@
       <c r="H315" s="2">
         <v>17</v>
       </c>
-      <c r="I315" s="2"/>
+      <c r="I315" s="2">
+        <v>14</v>
+      </c>
       <c r="J315" s="2"/>
       <c r="K315" s="2"/>
       <c r="L315" s="2"/>
@@ -11949,7 +12804,9 @@
       <c r="H316" s="2">
         <v>10</v>
       </c>
-      <c r="I316" s="2"/>
+      <c r="I316" s="2">
+        <v>14</v>
+      </c>
       <c r="J316" s="2"/>
       <c r="K316" s="2"/>
       <c r="L316" s="2"/>
@@ -12012,7 +12869,9 @@
       <c r="H317" s="2">
         <v>7</v>
       </c>
-      <c r="I317" s="2"/>
+      <c r="I317" s="2">
+        <v>14</v>
+      </c>
       <c r="J317" s="2"/>
       <c r="K317" s="2"/>
       <c r="L317" s="2"/>
@@ -12075,7 +12934,9 @@
       <c r="H318" s="2">
         <v>10</v>
       </c>
-      <c r="I318" s="2"/>
+      <c r="I318" s="2">
+        <v>7</v>
+      </c>
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
       <c r="L318" s="2"/>
@@ -12138,7 +12999,9 @@
       <c r="H319" s="2">
         <v>14</v>
       </c>
-      <c r="I319" s="2"/>
+      <c r="I319" s="2">
+        <v>10</v>
+      </c>
       <c r="J319" s="2"/>
       <c r="K319" s="2"/>
       <c r="L319" s="2"/>
@@ -12201,8 +13064,11 @@
       <c r="H320" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I320" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -12227,8 +13093,11 @@
       <c r="H321" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I321" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -12253,8 +13122,11 @@
       <c r="H322" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I322" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -12279,8 +13151,11 @@
       <c r="H323" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I323" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -12305,8 +13180,11 @@
       <c r="H324" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I324" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -12331,8 +13209,11 @@
       <c r="H325" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I325" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -12357,8 +13238,11 @@
       <c r="H326" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I326" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -12383,8 +13267,11 @@
       <c r="H327" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I327" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -12409,8 +13296,11 @@
       <c r="H328" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I328" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -12435,8 +13325,11 @@
       <c r="H329" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I329" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -12461,8 +13354,11 @@
       <c r="H330" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I330" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -12487,8 +13383,11 @@
       <c r="H331" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I331" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -12513,8 +13412,11 @@
       <c r="H332" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I332" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -12539,8 +13441,11 @@
       <c r="H333" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I333" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A334" s="3">
         <v>333</v>
       </c>
@@ -12565,8 +13470,11 @@
       <c r="H334" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I334" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -12591,8 +13499,11 @@
       <c r="H335" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I335" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -12617,8 +13528,11 @@
       <c r="H336" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I336" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -12642,6 +13556,9 @@
       </c>
       <c r="H337" s="2">
         <v>14</v>
+      </c>
+      <c r="I337" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
